--- a/story/主线剧情/main/level_main_07-02_beg.xlsx
+++ b/story/主线剧情/main/level_main_07-02_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="849">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1714,6 +1717,850 @@
   </si>
   <si>
     <t xml:space="preserve">[name="オペレーター"]  あの子の戦闘中に飛び散る破片に当たっただけでも死ぬぞ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uptown Lungmen 7:00 PM, Dusk
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  A secret arrest warrant? For Ch’en Sir?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  It’s gotta be a mistake? There’s no way...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Hey! Get back here! I asked you if this was a mistake or not!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  Damn it, Ch’en Sir, what the hell... who’s behind this?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="L.G.D. Officer"]  I have to find her. I have to hear her side of the story!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  ...Yes. I understand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greytail"]  Anything else, Master?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  No. Go and do what I told you for now. When you’re finished, find somewhere to lay low for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Greytail"]  Got it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  Now go. Hurry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  Ah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  ——*Sigh*. It turns out there really is someone who can outplay Wei Yenwu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  Talulah, Talulah... is this really just fate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  Oh, Young Master, if you could see us now from up there, you also would not wish to see this, would you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  But alas, Lungmen’s finally come to this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rat King"]  But Hui-chieh... Hui-chieh! Be careful, Hui-chieh... You mustn’t get yourself killed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lungmen Harbor Dock 7:20 PM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herd"]  Guh... agh! Nng... grrgh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Damnit, there’s still so many of them out there... I thought the L.G.D. was supposed to have this area under control?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Yesterday it was Reunion, today it’s these weird Infected. Even we can’t hold them off. And we can’t use heavy-duty weapons inside the city...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hello, Operators. Is that who we’re fighting today?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Rosmontis! Thank goodness, we’re saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  They’re Infected who have been twisted by Arts...? And we can’t stop them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  That’s right. We mostly brought defense equipment, but I never expected that they’d shred through our steel cables and polyfiber nets like paper. We might have to bring in some military-grade weapons.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  We’re at our limits here, so we had no choice but to ask for backup from the landship. Thankfully, now that you’re here, we might be able to turn the tides.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The Originium structure inside makes their bodies incredibly tough. We use suppressing fire to keep them under control. Also... our scans aren’t picking up any signs of brain activity at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The main point there is, they’re pretty much... already physically dead. They’re just empty husks, propped up by Arts. It’s unbelievably cruel...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Whoever did this... has to pay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But more importantly, at least you all are safe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Let’s make a plan. I’ll... get them to settle down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You’re going to fight?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="But you look...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Doctor... have you never met Rosmontis before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Please stand aside, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Then, you might want to take a step back. I guarantee you’ve never seen anything like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Is that a metal box from the landship flying by?!;...?;That thing floating in the air there, is your equipment?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  It’s mine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Operator, please describe your impressions of the target.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hold on, I’ll check the manual... Okay, the target’s, uh, a large group of active, restless individuals?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  They’re moving as a group with no clear objective. Their general trend is clear, but with no set route. That should be good enough, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Received. I’ll handle this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Dr. Kal'tsit was very clear, once we finish with this, Rhodes Island is to leave Lungmen immediately...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Evening, old friend.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma...? What are you doing here? How about your injuries?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I’m an Oni. Those scratches are long gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Good. Now, I—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hold on. Were you waiting for me here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That dune buggy you’re pushing is a new model from Rim Billiton, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  “Great for off-road performance. Dustproof, climbs hills with ease, incredible range and fuel efficiency. Minimal environmental impact with maximum comfort.” That one?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Yeah, sorry. I saw that ad on the terminal a million times. Guess it got stuck in the old noggin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It’s a damn good buggy though. I’m not even into off-roading and I’d like to get one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  What are you trying to say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You look like hell, Ch'en. Where do you plan on going?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  How did you know I’d be here...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You come here every time you want to sneak out of the city. Remember, I also know every nook and cranny of this place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  The L.G.D. issued an arrest warrant.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  But that’s not what you’re here for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Of course not. I know exactly what kind of person you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  This is my only way out of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I stayed dark the whole way. If the whole L.G.D. knew me half as well as you do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Then you’ll never make it out of Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...Excuse me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  What do you mean by that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  They’re just like me. They don’t want you to go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma... are you going to stop me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Why you, of all people, Hoshiguma?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Of course I am, Ch'en. I’m an L.G.D. inspector, and more importantly, your friend.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Did you serious plan to wander off and play the lone hero on a grand adventure? That is precisely why I cannot let you leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You’re a Lungmenite, Hoshiguma!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  This is our last chance. If Wei Yenwu has it his way, more people are going to die!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And your way is better?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  They call you “Madame Oni.” They trust you to take care of the Lungmen they love so much. Let me go, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...Hah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Do they really love Lungmen, Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Me? I’m old school.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Comics, movies, booze, rainy streets, some guy running by without an umbrella. I like my stuff retro, just not bikes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  People say some stuff goes out of style quick. Ch'en, can we really outrun time itself?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I can’t. No way. It moves too fast. That chase has crushed so much of what I cared about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  This is all I have left. A yellowed splotch, a tear, a dog-eared page. I've got names for 'em all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And it sucks. I hate how time took all these people from me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  They died horrible, miserable deaths, sacrificing themselves to try to find a place in this world. But me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I simply watched them all vanish into dust. Some of them? I smashed their dreams to pieces with these very two hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  They didn’t love Lungmen. They simply had nowhere else to go. And in the end, that was my fault.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You’re not going anywhere, Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Ah Faat died, all those people died for Lungmen... You’re going to pretend you never saw any of that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Don’t act like you knew them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  They were with me a lot longer than you. I knew them much better than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  It’s my duty to protect Lungmen. No matter who stands in my way, it’s my duty. That hasn’t changed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  So you’re still Superintendent Ch'en? And who gave you this duty?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...Is that just something you wanted to hear yourself say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Look at you. You’re gonna save Lungmen all by yourself? One woman against all of Reunion? Your temper tantrum won’t get you that far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It’s funny. You’re the one who always carried out Mr. Wei’s orders, because you could relate with him. Now I’m the one who relates with him a bit better, and I’m the one carrying out his orders. How the tables have turned.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I’ve seen the gist of Mr. Wei’s plans. If someone has to die, Mr. Wei thinks it ought to be him. You’re carrying the Ch’en family’s blood. Once all this blows over, no one’s coming after you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You mean, he—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Mr. Wei would rather he die than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You give him too much credit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Maybe you don’t give him enough, Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  If he wants to die, he’s welcome to it. But what will that get us? What’s the point? Will it prevent a war? Will it get Lungmen out of this mess?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  If he dies, it’ll get some of the blame off Lungmen. I think all the blame will pretty much vanish into thin air, actually.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You really think it’ll be that easy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Nothing’s ever that easy. That’s why he wants you running the L.G.D.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You’ll get his job and be Chief of the L.G.D. sooner or later. After that, you’ll become the boss of the entire city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  There’s been a lot of rot left behind, and you should be the one to clean it out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I get what Mr. Wei wants from you. Though he’s been waiting for a long time, I can tell that his beliefs and methods haven’t changed from the day I met him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Lungmen still needs you. And she doesn’t want you in danger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m just so disgusted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Mr. Wei’s death may not matter to you. But once he’s gone, you can change this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I have to tell you something, Hoshiguma. It’s the reason I don’t belong here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Don’t mess with me, Ch'en. No one’s more Lungmen than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’m an Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...Since when...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Three years ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You’ve been hiding it from me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I didn’t mean to...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  How come you didn’t even tell me...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Wei Yenwu didn’t want anyone to know. We couldn’t have an Infected in the L.G.D. So I couldn’t be Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, there is no place for the Infected here. Or anywhere else in the world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’ve had enough of Wei Yenwu controlling us. I’m not going to be his tool anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  No. I get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I finally... actually, really get it, Ch'en. I know exactly why you can’t leave Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  If you leave and go to that core city, Mr. Wei would have to brand you an enemy. Not just an enemy, but a dangerous Infected enemy working against Lungmen...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  The whole city would know you’re Infected. They might even think you’re working with Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And that’ll be the end of it. You’ll never be able to come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I don’t care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That’s my line.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  “You’re Infected? I don’t care.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don’t care. Missy doesn’t care. Nine doesn’t care. The L.G.D. doesn’t care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Not even Mr. Wei cares. He wants you to change this place. He doesn’t want you gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You didn’t see how ruthlessly he treated the Infected. I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  And Nine? She’s already gone. She quit the L.G.D. because she was Infected too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...Nine too...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  You know, Nine and I might’ve contracted Oripathy on the same mission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  She went undercover for me in Reunion... And then, because of Reunion, she abandoned Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Because she saw the truth of this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  But you didn’t betray Lungmen. I’m not letting you take the fall for a crime you didn’t commit. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hoshiguma, why do you think... I’m going to the core city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I’ve never been good at guessing games. Just get to the point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Heh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Do you know who’s leading Reunion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I forgot her name.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Missy didn’t tell you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Tell me what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Talulah is my sister.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Oh. Ohhh... Hah. I get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, you’re not going today.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  ...Why...? Is my sister, my family... not important enough?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That’s why...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That’s why I can’t let you go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Even if I have to die here. I’m not letting you go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  That’s not for you to decide, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Hannya can decide.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  —No matter what stands in my way, whether it’s a Catastrophe, a shield, or an Oni, I’m not giving in!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  The blacksmith who cast this shield had his whole family killed by a gang of wandering Onis. His fury is much more toxic than any Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  The blood that stains this shield, and the tragedy it represents... is much more wicked than any Catastrophe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, Mr. Wei isn’t a good man. We can kick his ass together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Whatever you want to do, I’ll do it with you. You want my Columbian Big Single 70 vv? It’s yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Ch'en, now’s not the time. Don’t go. Don’t force me to do this. It’s all I ask.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Force you? Why are you talking like Wei Yenwu...? I don’t like it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  When Wei did what he did... no.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  When he betrayed his brother, failed my mother, and put this city to sleep under his cloud of wickedness, that’s when I decided to do this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You might think that stuff has anything to do with you, but I don’t think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  What do you mean...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  What he did, what he did for you, and what you should be doing, none of it is connected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  That’s what Mr. Wei was hoping for. He didn’t want to play the bad guy. He’s not power-hungry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  He gave you the sword.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  …You don’t get it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Understand what?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  It wasn’t just one time. It happened again, and again, and again... I destroyed my home, I destroyed my family.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Covered horn to toe in blood every time, I fought to the bitter end, until I was the only one left standing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Because that’s what I thought was right. And they were wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I found myself asking a lot if I really deserved to live.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don’t. But I lived anyway. I just can’t live for myself anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Putting yourself out because of some concept of right and wrong... that’s the dumbest thing a person can do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  And I’ve dealt with the regret my whole life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You think you’re the only one who’s got a lot of baggage, Miss Ch'en?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Stop talking like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  ...So why can’t you understand me, even a little bit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  We’ve been through so much together, all these years. There’s still something you can’t tell me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  I’ve got my baggage and you’ve got yours. We both know that. Even so...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  What is there you still don’t understand? I never pulled any of you into this! How can you say I don’t understand you?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Because I’ve seen too many people die for nothing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I don’t care who you are. I just care where you’re going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I’m not letting you go. This is all on the leader of Reunion. You can’t change the situation. You’ll just die for nothing too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  No one wants to see that. Not the L.G.D., not Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  —Thank you, Hoshiguma.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  But I’m still going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Really?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  If we have to fight, you should know I’m not scared of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  You really have to go, huh? You feeling like your heart is hard as iron right now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  I told you before, you’re lost in your own thoughts, you lost sight of everything around you, of everything everyone’s done for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Your stubbornness is only gonna get you hurt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Hmph.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  Fine. I guess you’ll have to take a beating before you can learn, like a young Hoshiguma, that being a stubborn ass is just a stupid impulse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoshiguma"]  If you want to fight, Ch'en... Then let’s do it. Show me everything you’ve learned in the last two years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch’en"]  Stop. Talking. Like. That.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  EX-42 Long-Range Originium Arts Control Device, Operator Rosmontis, requesting approval.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="PRTS"]  Approved for use in defensive operations. Removal approved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="PRTS"]  User: Annihilation Specialist, Elite Operator Rosmontis. Activation approved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Okay. I’m going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Please tell Closure for me, about the Rhodes Island landship startup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Hurry, Doctor, get in the cabin. Don’t watch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  If you get hit by Rosmontis’s shrapnel, you’re pretty much a goner.
 </t>
   </si>
   <si>
@@ -2916,13 +3763,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:D216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2932,2370 +3779,3018 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
+        <v>454</v>
+      </c>
+      <c r="D29" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D31" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>459</v>
+      </c>
+      <c r="D34" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>460</v>
+      </c>
+      <c r="D35" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" t="s">
+        <v>462</v>
+      </c>
+      <c r="D37" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
+      <c r="D39" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C41" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>467</v>
+      </c>
+      <c r="D42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>468</v>
+      </c>
+      <c r="D43" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="C44" t="s">
+        <v>469</v>
+      </c>
+      <c r="D44" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" t="s">
+        <v>471</v>
+      </c>
+      <c r="D46" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" t="s">
+        <v>472</v>
+      </c>
+      <c r="D47" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>261</v>
+      </c>
+      <c r="C48" t="s">
+        <v>473</v>
+      </c>
+      <c r="D48" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" t="s">
+        <v>474</v>
+      </c>
+      <c r="D49" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>475</v>
+      </c>
+      <c r="D50" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>476</v>
+      </c>
+      <c r="D51" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" t="s">
+        <v>477</v>
+      </c>
+      <c r="D52" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" t="s">
+        <v>478</v>
+      </c>
+      <c r="D53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>268</v>
+      </c>
+      <c r="C55" t="s">
+        <v>480</v>
+      </c>
+      <c r="D55" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56" t="s">
+        <v>481</v>
+      </c>
+      <c r="D56" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>482</v>
+      </c>
+      <c r="D57" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C58" t="s">
+        <v>483</v>
+      </c>
+      <c r="D58" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D59" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>485</v>
+      </c>
+      <c r="D60" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>487</v>
+      </c>
+      <c r="D62" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D63" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" t="s">
+        <v>489</v>
+      </c>
+      <c r="D64" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" t="s">
+        <v>490</v>
+      </c>
+      <c r="D65" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>492</v>
+      </c>
+      <c r="D67" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>493</v>
+      </c>
+      <c r="D68" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>282</v>
+      </c>
+      <c r="C69" t="s">
+        <v>494</v>
+      </c>
+      <c r="D69" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" t="s">
+        <v>495</v>
+      </c>
+      <c r="D70" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" t="s">
+        <v>496</v>
+      </c>
+      <c r="D71" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" t="s">
+        <v>497</v>
+      </c>
+      <c r="D72" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>498</v>
+      </c>
+      <c r="D73" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>499</v>
+      </c>
+      <c r="D74" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>288</v>
+      </c>
+      <c r="C75" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>478</v>
+      </c>
+      <c r="D76" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" t="s">
+        <v>502</v>
+      </c>
+      <c r="D78" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C80" t="s">
+        <v>504</v>
+      </c>
+      <c r="D80" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" t="s">
+        <v>505</v>
+      </c>
+      <c r="D81" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>295</v>
+      </c>
+      <c r="C82" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C83" t="s">
+        <v>507</v>
+      </c>
+      <c r="D83" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" t="s">
+        <v>508</v>
+      </c>
+      <c r="D84" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" t="s">
+        <v>509</v>
+      </c>
+      <c r="D85" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" t="s">
+        <v>510</v>
+      </c>
+      <c r="D86" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" t="s">
+        <v>511</v>
+      </c>
+      <c r="D87" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" t="s">
+        <v>512</v>
+      </c>
+      <c r="D88" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" t="s">
+        <v>513</v>
+      </c>
+      <c r="D89" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>303</v>
+      </c>
+      <c r="C90" t="s">
+        <v>514</v>
+      </c>
+      <c r="D90" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>478</v>
+      </c>
+      <c r="D91" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" t="s">
+        <v>515</v>
+      </c>
+      <c r="D92" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" t="s">
+        <v>516</v>
+      </c>
+      <c r="D93" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>306</v>
+      </c>
+      <c r="C94" t="s">
+        <v>517</v>
+      </c>
+      <c r="D94" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>307</v>
+      </c>
+      <c r="C95" t="s">
+        <v>518</v>
+      </c>
+      <c r="D95" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" t="s">
+        <v>519</v>
+      </c>
+      <c r="D96" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" t="s">
+        <v>520</v>
+      </c>
+      <c r="D97" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" t="s">
+        <v>521</v>
+      </c>
+      <c r="D98" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>311</v>
+      </c>
+      <c r="C99" t="s">
+        <v>522</v>
+      </c>
+      <c r="D99" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" t="s">
+        <v>524</v>
+      </c>
+      <c r="D101" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" t="s">
+        <v>525</v>
+      </c>
+      <c r="D102" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>315</v>
+      </c>
+      <c r="C103" t="s">
+        <v>526</v>
+      </c>
+      <c r="D103" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" t="s">
+        <v>527</v>
+      </c>
+      <c r="D104" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" t="s">
+        <v>528</v>
+      </c>
+      <c r="D105" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>318</v>
+      </c>
+      <c r="C106" t="s">
+        <v>529</v>
+      </c>
+      <c r="D106" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>319</v>
+      </c>
+      <c r="C107" t="s">
+        <v>530</v>
+      </c>
+      <c r="D107" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
+        <v>531</v>
+      </c>
+      <c r="D108" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>321</v>
+      </c>
+      <c r="C109" t="s">
+        <v>532</v>
+      </c>
+      <c r="D109" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" t="s">
+        <v>533</v>
+      </c>
+      <c r="D110" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" t="s">
+        <v>534</v>
+      </c>
+      <c r="D111" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" t="s">
+        <v>535</v>
+      </c>
+      <c r="D112" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
+        <v>478</v>
+      </c>
+      <c r="D113" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>325</v>
+      </c>
+      <c r="C114" t="s">
+        <v>536</v>
+      </c>
+      <c r="D114" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>326</v>
+      </c>
+      <c r="C115" t="s">
+        <v>537</v>
+      </c>
+      <c r="D115" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>327</v>
+      </c>
+      <c r="C116" t="s">
+        <v>538</v>
+      </c>
+      <c r="D116" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>328</v>
+      </c>
+      <c r="C117" t="s">
+        <v>539</v>
+      </c>
+      <c r="D117" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>329</v>
+      </c>
+      <c r="C118" t="s">
+        <v>540</v>
+      </c>
+      <c r="D118" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C119" t="s">
+        <v>541</v>
+      </c>
+      <c r="D119" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" t="s">
+        <v>542</v>
+      </c>
+      <c r="D120" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" t="s">
+        <v>543</v>
+      </c>
+      <c r="D121" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>333</v>
+      </c>
+      <c r="C122" t="s">
+        <v>544</v>
+      </c>
+      <c r="D122" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" t="s">
+        <v>545</v>
+      </c>
+      <c r="D123" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" t="s">
+        <v>546</v>
+      </c>
+      <c r="D124" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" t="s">
+        <v>547</v>
+      </c>
+      <c r="D125" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>337</v>
+      </c>
+      <c r="C126" t="s">
+        <v>548</v>
+      </c>
+      <c r="D126" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127" t="s">
+        <v>549</v>
+      </c>
+      <c r="D127" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>339</v>
+      </c>
+      <c r="C128" t="s">
+        <v>550</v>
+      </c>
+      <c r="D128" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>340</v>
+      </c>
+      <c r="C129" t="s">
+        <v>551</v>
+      </c>
+      <c r="D129" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>341</v>
+      </c>
+      <c r="C130" t="s">
+        <v>552</v>
+      </c>
+      <c r="D130" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" t="s">
+        <v>553</v>
+      </c>
+      <c r="D131" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>343</v>
+      </c>
+      <c r="C132" t="s">
+        <v>554</v>
+      </c>
+      <c r="D132" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>344</v>
+      </c>
+      <c r="C133" t="s">
+        <v>555</v>
+      </c>
+      <c r="D133" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" t="s">
+        <v>556</v>
+      </c>
+      <c r="D134" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" t="s">
+        <v>557</v>
+      </c>
+      <c r="D135" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>347</v>
+      </c>
+      <c r="C136" t="s">
+        <v>558</v>
+      </c>
+      <c r="D136" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>348</v>
+      </c>
+      <c r="C137" t="s">
+        <v>559</v>
+      </c>
+      <c r="D137" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" t="s">
+        <v>560</v>
+      </c>
+      <c r="D138" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>350</v>
+      </c>
+      <c r="C139" t="s">
+        <v>561</v>
+      </c>
+      <c r="D139" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>351</v>
+      </c>
+      <c r="C140" t="s">
+        <v>562</v>
+      </c>
+      <c r="D140" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>352</v>
+      </c>
+      <c r="C141" t="s">
+        <v>563</v>
+      </c>
+      <c r="D141" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" t="s">
+        <v>564</v>
+      </c>
+      <c r="D142" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" t="s">
+        <v>565</v>
+      </c>
+      <c r="D143" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>355</v>
+      </c>
+      <c r="C144" t="s">
+        <v>566</v>
+      </c>
+      <c r="D144" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" t="s">
+        <v>567</v>
+      </c>
+      <c r="D145" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>357</v>
+      </c>
+      <c r="C146" t="s">
+        <v>568</v>
+      </c>
+      <c r="D146" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>358</v>
+      </c>
+      <c r="C147" t="s">
+        <v>569</v>
+      </c>
+      <c r="D147" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>359</v>
+      </c>
+      <c r="C148" t="s">
+        <v>570</v>
+      </c>
+      <c r="D148" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>360</v>
+      </c>
+      <c r="C149" t="s">
+        <v>571</v>
+      </c>
+      <c r="D149" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>361</v>
+      </c>
+      <c r="C150" t="s">
+        <v>572</v>
+      </c>
+      <c r="D150" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>362</v>
+      </c>
+      <c r="C151" t="s">
+        <v>573</v>
+      </c>
+      <c r="D151" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>363</v>
+      </c>
+      <c r="C152" t="s">
+        <v>574</v>
+      </c>
+      <c r="D152" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>364</v>
+      </c>
+      <c r="C153" t="s">
+        <v>575</v>
+      </c>
+      <c r="D153" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>365</v>
+      </c>
+      <c r="C154" t="s">
+        <v>576</v>
+      </c>
+      <c r="D154" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>366</v>
+      </c>
+      <c r="C155" t="s">
+        <v>577</v>
+      </c>
+      <c r="D155" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" t="s">
+        <v>578</v>
+      </c>
+      <c r="D156" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>368</v>
+      </c>
+      <c r="C157" t="s">
+        <v>579</v>
+      </c>
+      <c r="D157" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>369</v>
+      </c>
+      <c r="C158" t="s">
+        <v>580</v>
+      </c>
+      <c r="D158" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>370</v>
+      </c>
+      <c r="C159" t="s">
+        <v>581</v>
+      </c>
+      <c r="D159" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>371</v>
+      </c>
+      <c r="C160" t="s">
+        <v>582</v>
+      </c>
+      <c r="D160" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>372</v>
+      </c>
+      <c r="C161" t="s">
+        <v>583</v>
+      </c>
+      <c r="D161" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" t="s">
+        <v>584</v>
+      </c>
+      <c r="D162" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B163" t="s">
+        <v>266</v>
+      </c>
+      <c r="C163" t="s">
+        <v>478</v>
+      </c>
+      <c r="D163" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>374</v>
+      </c>
+      <c r="C164" t="s">
+        <v>585</v>
+      </c>
+      <c r="D164" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>375</v>
+      </c>
+      <c r="C165" t="s">
+        <v>586</v>
+      </c>
+      <c r="D165" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>376</v>
+      </c>
+      <c r="C166" t="s">
+        <v>587</v>
+      </c>
+      <c r="D166" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>377</v>
+      </c>
+      <c r="C167" t="s">
+        <v>588</v>
+      </c>
+      <c r="D167" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>378</v>
+      </c>
+      <c r="C168" t="s">
+        <v>589</v>
+      </c>
+      <c r="D168" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>379</v>
+      </c>
+      <c r="C169" t="s">
+        <v>590</v>
+      </c>
+      <c r="D169" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" t="s">
+        <v>591</v>
+      </c>
+      <c r="D170" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>381</v>
+      </c>
+      <c r="C171" t="s">
+        <v>592</v>
+      </c>
+      <c r="D171" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>382</v>
+      </c>
+      <c r="C172" t="s">
+        <v>593</v>
+      </c>
+      <c r="D172" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>383</v>
+      </c>
+      <c r="C173" t="s">
+        <v>594</v>
+      </c>
+      <c r="D173" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>384</v>
+      </c>
+      <c r="C174" t="s">
+        <v>595</v>
+      </c>
+      <c r="D174" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>385</v>
+      </c>
+      <c r="C175" t="s">
+        <v>596</v>
+      </c>
+      <c r="D175" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>386</v>
+      </c>
+      <c r="C176" t="s">
+        <v>597</v>
+      </c>
+      <c r="D176" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>387</v>
+      </c>
+      <c r="C177" t="s">
+        <v>598</v>
+      </c>
+      <c r="D177" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>388</v>
+      </c>
+      <c r="C178" t="s">
+        <v>599</v>
+      </c>
+      <c r="D178" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" t="s">
+        <v>600</v>
+      </c>
+      <c r="D179" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>390</v>
+      </c>
+      <c r="C180" t="s">
+        <v>601</v>
+      </c>
+      <c r="D180" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>391</v>
+      </c>
+      <c r="C181" t="s">
+        <v>602</v>
+      </c>
+      <c r="D181" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>392</v>
+      </c>
+      <c r="C182" t="s">
+        <v>603</v>
+      </c>
+      <c r="D182" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" t="s">
+        <v>604</v>
+      </c>
+      <c r="D183" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>394</v>
+      </c>
+      <c r="C184" t="s">
+        <v>605</v>
+      </c>
+      <c r="D184" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" t="s">
+        <v>606</v>
+      </c>
+      <c r="D185" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>396</v>
+      </c>
+      <c r="C186" t="s">
+        <v>607</v>
+      </c>
+      <c r="D186" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187" t="s">
+        <v>608</v>
+      </c>
+      <c r="D187" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>398</v>
+      </c>
+      <c r="C188" t="s">
+        <v>609</v>
+      </c>
+      <c r="D188" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>399</v>
+      </c>
+      <c r="C189" t="s">
+        <v>610</v>
+      </c>
+      <c r="D189" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" t="s">
+        <v>611</v>
+      </c>
+      <c r="D190" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>401</v>
+      </c>
+      <c r="C191" t="s">
+        <v>612</v>
+      </c>
+      <c r="D191" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>402</v>
+      </c>
+      <c r="C192" t="s">
+        <v>613</v>
+      </c>
+      <c r="D192" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>403</v>
+      </c>
+      <c r="C193" t="s">
+        <v>614</v>
+      </c>
+      <c r="D193" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" t="s">
+        <v>615</v>
+      </c>
+      <c r="D194" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>405</v>
+      </c>
+      <c r="C195" t="s">
+        <v>616</v>
+      </c>
+      <c r="D195" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>406</v>
+      </c>
+      <c r="C196" t="s">
+        <v>617</v>
+      </c>
+      <c r="D196" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>407</v>
+      </c>
+      <c r="C197" t="s">
+        <v>618</v>
+      </c>
+      <c r="D197" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>408</v>
+      </c>
+      <c r="C198" t="s">
+        <v>619</v>
+      </c>
+      <c r="D198" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>409</v>
+      </c>
+      <c r="C199" t="s">
+        <v>620</v>
+      </c>
+      <c r="D199" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" t="s">
+        <v>621</v>
+      </c>
+      <c r="D200" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>411</v>
+      </c>
+      <c r="C201" t="s">
+        <v>622</v>
+      </c>
+      <c r="D201" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>412</v>
+      </c>
+      <c r="C202" t="s">
+        <v>623</v>
+      </c>
+      <c r="D202" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" t="s">
+        <v>624</v>
+      </c>
+      <c r="D203" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>414</v>
+      </c>
+      <c r="C204" t="s">
+        <v>625</v>
+      </c>
+      <c r="D204" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>415</v>
+      </c>
+      <c r="C205" t="s">
+        <v>626</v>
+      </c>
+      <c r="D205" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" t="s">
+        <v>627</v>
+      </c>
+      <c r="D206" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>417</v>
+      </c>
+      <c r="C207" t="s">
+        <v>628</v>
+      </c>
+      <c r="D207" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>418</v>
+      </c>
+      <c r="C208" t="s">
+        <v>629</v>
+      </c>
+      <c r="D208" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" t="s">
+        <v>630</v>
+      </c>
+      <c r="D209" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>420</v>
+      </c>
+      <c r="C210" t="s">
+        <v>631</v>
+      </c>
+      <c r="D210" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+      <c r="C211" t="s">
+        <v>632</v>
+      </c>
+      <c r="D211" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" t="s">
+        <v>633</v>
+      </c>
+      <c r="D212" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
+      <c r="C213" t="s">
+        <v>634</v>
+      </c>
+      <c r="D213" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>424</v>
+      </c>
+      <c r="C214" t="s">
+        <v>635</v>
+      </c>
+      <c r="D214" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>425</v>
+      </c>
+      <c r="C215" t="s">
+        <v>636</v>
+      </c>
+      <c r="D215" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B216" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>228</v>
-      </c>
-      <c r="C16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C18" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>238</v>
-      </c>
-      <c r="C26" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>243</v>
-      </c>
-      <c r="C31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C32" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>250</v>
-      </c>
-      <c r="C38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>252</v>
-      </c>
-      <c r="C40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>253</v>
-      </c>
-      <c r="C41" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-      <c r="C45" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>258</v>
-      </c>
-      <c r="C46" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>259</v>
-      </c>
-      <c r="C47" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>260</v>
-      </c>
-      <c r="C48" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C54" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>267</v>
-      </c>
-      <c r="C55" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>268</v>
-      </c>
-      <c r="C56" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>269</v>
-      </c>
-      <c r="C57" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C58" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>271</v>
-      </c>
-      <c r="C59" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>272</v>
-      </c>
-      <c r="C60" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>273</v>
-      </c>
-      <c r="C61" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>274</v>
-      </c>
-      <c r="C62" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>276</v>
-      </c>
-      <c r="C64" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C65" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>278</v>
-      </c>
-      <c r="C66" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>279</v>
-      </c>
-      <c r="C67" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>280</v>
-      </c>
-      <c r="C68" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>281</v>
-      </c>
-      <c r="C69" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>282</v>
-      </c>
-      <c r="C70" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>283</v>
-      </c>
-      <c r="C71" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>286</v>
-      </c>
-      <c r="C74" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" t="s">
-        <v>288</v>
-      </c>
-      <c r="C76" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>289</v>
-      </c>
-      <c r="C77" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>290</v>
-      </c>
-      <c r="C78" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>291</v>
-      </c>
-      <c r="C79" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>293</v>
-      </c>
-      <c r="C81" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>294</v>
-      </c>
-      <c r="C82" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>295</v>
-      </c>
-      <c r="C83" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>296</v>
-      </c>
-      <c r="C84" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>297</v>
-      </c>
-      <c r="C85" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>298</v>
-      </c>
-      <c r="C86" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>299</v>
-      </c>
-      <c r="C87" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>300</v>
-      </c>
-      <c r="C88" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>301</v>
-      </c>
-      <c r="C89" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>302</v>
-      </c>
-      <c r="C90" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" t="s">
-        <v>265</v>
-      </c>
-      <c r="C91" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>303</v>
-      </c>
-      <c r="C92" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>307</v>
-      </c>
-      <c r="C96" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>312</v>
-      </c>
-      <c r="C101" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>313</v>
-      </c>
-      <c r="C102" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C103" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>315</v>
-      </c>
-      <c r="C104" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>316</v>
-      </c>
-      <c r="C105" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>317</v>
-      </c>
-      <c r="C106" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>318</v>
-      </c>
-      <c r="C107" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>321</v>
-      </c>
-      <c r="C110" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>322</v>
-      </c>
-      <c r="C111" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" t="s">
-        <v>265</v>
-      </c>
-      <c r="C113" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>324</v>
-      </c>
-      <c r="C114" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>325</v>
-      </c>
-      <c r="C115" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>326</v>
-      </c>
-      <c r="C116" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>327</v>
-      </c>
-      <c r="C117" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>328</v>
-      </c>
-      <c r="C118" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>329</v>
-      </c>
-      <c r="C119" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>330</v>
-      </c>
-      <c r="C120" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>331</v>
-      </c>
-      <c r="C121" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>332</v>
-      </c>
-      <c r="C122" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>333</v>
-      </c>
-      <c r="C123" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>334</v>
-      </c>
-      <c r="C124" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>335</v>
-      </c>
-      <c r="C125" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>336</v>
-      </c>
-      <c r="C126" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C127" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C128" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>339</v>
-      </c>
-      <c r="C129" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>340</v>
-      </c>
-      <c r="C130" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>341</v>
-      </c>
-      <c r="C131" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>342</v>
-      </c>
-      <c r="C132" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>343</v>
-      </c>
-      <c r="C133" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>344</v>
-      </c>
-      <c r="C134" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>345</v>
-      </c>
-      <c r="C135" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>346</v>
-      </c>
-      <c r="C136" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>347</v>
-      </c>
-      <c r="C137" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>348</v>
-      </c>
-      <c r="C138" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>349</v>
-      </c>
-      <c r="C139" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>351</v>
-      </c>
-      <c r="C141" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>352</v>
-      </c>
-      <c r="C142" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>353</v>
-      </c>
-      <c r="C143" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>354</v>
-      </c>
-      <c r="C144" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>355</v>
-      </c>
-      <c r="C145" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>356</v>
-      </c>
-      <c r="C146" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>357</v>
-      </c>
-      <c r="C147" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>358</v>
-      </c>
-      <c r="C148" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>359</v>
-      </c>
-      <c r="C149" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>360</v>
-      </c>
-      <c r="C150" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>361</v>
-      </c>
-      <c r="C151" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>362</v>
-      </c>
-      <c r="C152" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>363</v>
-      </c>
-      <c r="C153" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>364</v>
-      </c>
-      <c r="C154" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>365</v>
-      </c>
-      <c r="C155" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>366</v>
-      </c>
-      <c r="C156" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>367</v>
-      </c>
-      <c r="C157" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>368</v>
-      </c>
-      <c r="C158" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>369</v>
-      </c>
-      <c r="C159" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>370</v>
-      </c>
-      <c r="C160" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>371</v>
-      </c>
-      <c r="C161" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>372</v>
-      </c>
-      <c r="C162" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>54</v>
-      </c>
-      <c r="B163" t="s">
-        <v>265</v>
-      </c>
-      <c r="C163" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>161</v>
-      </c>
-      <c r="B164" t="s">
-        <v>373</v>
-      </c>
-      <c r="C164" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>162</v>
-      </c>
-      <c r="B165" t="s">
-        <v>374</v>
-      </c>
-      <c r="C165" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>163</v>
-      </c>
-      <c r="B166" t="s">
-        <v>375</v>
-      </c>
-      <c r="C166" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>164</v>
-      </c>
-      <c r="B167" t="s">
-        <v>376</v>
-      </c>
-      <c r="C167" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>165</v>
-      </c>
-      <c r="B168" t="s">
-        <v>377</v>
-      </c>
-      <c r="C168" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" t="s">
-        <v>378</v>
-      </c>
-      <c r="C169" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>167</v>
-      </c>
-      <c r="B170" t="s">
-        <v>379</v>
-      </c>
-      <c r="C170" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>168</v>
-      </c>
-      <c r="B171" t="s">
-        <v>380</v>
-      </c>
-      <c r="C171" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>169</v>
-      </c>
-      <c r="B172" t="s">
-        <v>381</v>
-      </c>
-      <c r="C172" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>170</v>
-      </c>
-      <c r="B173" t="s">
-        <v>382</v>
-      </c>
-      <c r="C173" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>171</v>
-      </c>
-      <c r="B174" t="s">
-        <v>383</v>
-      </c>
-      <c r="C174" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" t="s">
-        <v>384</v>
-      </c>
-      <c r="C175" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>173</v>
-      </c>
-      <c r="B176" t="s">
-        <v>385</v>
-      </c>
-      <c r="C176" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" t="s">
-        <v>386</v>
-      </c>
-      <c r="C177" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B178" t="s">
-        <v>387</v>
-      </c>
-      <c r="C178" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>176</v>
-      </c>
-      <c r="B179" t="s">
-        <v>388</v>
-      </c>
-      <c r="C179" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>177</v>
-      </c>
-      <c r="B180" t="s">
-        <v>389</v>
-      </c>
-      <c r="C180" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>178</v>
-      </c>
-      <c r="B181" t="s">
-        <v>390</v>
-      </c>
-      <c r="C181" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>179</v>
-      </c>
-      <c r="B182" t="s">
-        <v>391</v>
-      </c>
-      <c r="C182" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>180</v>
-      </c>
-      <c r="B183" t="s">
-        <v>392</v>
-      </c>
-      <c r="C183" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>181</v>
-      </c>
-      <c r="B184" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>182</v>
-      </c>
-      <c r="B185" t="s">
-        <v>394</v>
-      </c>
-      <c r="C185" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>183</v>
-      </c>
-      <c r="B186" t="s">
-        <v>395</v>
-      </c>
-      <c r="C186" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B187" t="s">
-        <v>396</v>
-      </c>
-      <c r="C187" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>185</v>
-      </c>
-      <c r="B188" t="s">
-        <v>397</v>
-      </c>
-      <c r="C188" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>186</v>
-      </c>
-      <c r="B189" t="s">
-        <v>398</v>
-      </c>
-      <c r="C189" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>187</v>
-      </c>
-      <c r="B190" t="s">
-        <v>399</v>
-      </c>
-      <c r="C190" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>188</v>
-      </c>
-      <c r="B191" t="s">
-        <v>400</v>
-      </c>
-      <c r="C191" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>189</v>
-      </c>
-      <c r="B192" t="s">
-        <v>401</v>
-      </c>
-      <c r="C192" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>190</v>
-      </c>
-      <c r="B193" t="s">
-        <v>402</v>
-      </c>
-      <c r="C193" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>191</v>
-      </c>
-      <c r="B194" t="s">
-        <v>403</v>
-      </c>
-      <c r="C194" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>192</v>
-      </c>
-      <c r="B195" t="s">
-        <v>404</v>
-      </c>
-      <c r="C195" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>193</v>
-      </c>
-      <c r="B196" t="s">
-        <v>405</v>
-      </c>
-      <c r="C196" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>194</v>
-      </c>
-      <c r="B197" t="s">
-        <v>406</v>
-      </c>
-      <c r="C197" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>195</v>
-      </c>
-      <c r="B198" t="s">
-        <v>407</v>
-      </c>
-      <c r="C198" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>196</v>
-      </c>
-      <c r="B199" t="s">
-        <v>408</v>
-      </c>
-      <c r="C199" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>197</v>
-      </c>
-      <c r="B200" t="s">
-        <v>409</v>
-      </c>
-      <c r="C200" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>198</v>
-      </c>
-      <c r="B201" t="s">
-        <v>410</v>
-      </c>
-      <c r="C201" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>199</v>
-      </c>
-      <c r="B202" t="s">
-        <v>411</v>
-      </c>
-      <c r="C202" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" t="s">
-        <v>412</v>
-      </c>
-      <c r="C203" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>201</v>
-      </c>
-      <c r="B204" t="s">
-        <v>413</v>
-      </c>
-      <c r="C204" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>202</v>
-      </c>
-      <c r="B205" t="s">
-        <v>414</v>
-      </c>
-      <c r="C205" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>203</v>
-      </c>
-      <c r="B206" t="s">
-        <v>415</v>
-      </c>
-      <c r="C206" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>204</v>
-      </c>
-      <c r="B207" t="s">
-        <v>416</v>
-      </c>
-      <c r="C207" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>205</v>
-      </c>
-      <c r="B208" t="s">
-        <v>417</v>
-      </c>
-      <c r="C208" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>206</v>
-      </c>
-      <c r="B209" t="s">
-        <v>418</v>
-      </c>
-      <c r="C209" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>207</v>
-      </c>
-      <c r="B210" t="s">
-        <v>419</v>
-      </c>
-      <c r="C210" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>208</v>
-      </c>
-      <c r="B211" t="s">
-        <v>420</v>
-      </c>
-      <c r="C211" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>209</v>
-      </c>
-      <c r="B212" t="s">
-        <v>421</v>
-      </c>
-      <c r="C212" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>210</v>
-      </c>
-      <c r="B213" t="s">
-        <v>422</v>
-      </c>
-      <c r="C213" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>211</v>
-      </c>
-      <c r="B214" t="s">
-        <v>423</v>
-      </c>
-      <c r="C214" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>212</v>
-      </c>
-      <c r="B215" t="s">
-        <v>424</v>
-      </c>
-      <c r="C215" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>213</v>
-      </c>
-      <c r="B216" t="s">
-        <v>425</v>
-      </c>
       <c r="C216" t="s">
-        <v>636</v>
+        <v>637</v>
+      </c>
+      <c r="D216" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
